--- a/club_stat/sql/output.xlsx
+++ b/club_stat/sql/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>12</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
   </si>
 </sst>
 </file>
@@ -404,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +592,72 @@
         <v>3</v>
       </c>
     </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
